--- a/PropotionDeSalairesEnFonctionDuSexeEn2016GS.xlsx
+++ b/PropotionDeSalairesEnFonctionDuSexeEn2016GS.xlsx
@@ -173,7 +173,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Proportion de la tranche de salaire en fonction du sexe en 2016</a:t>
+              <a:t>Proportion des personnes selon leur sexe en fonction de la tranche de salaire en 2016</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -246,11 +246,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="190882571"/>
-        <c:axId val="1534948354"/>
+        <c:axId val="1385089001"/>
+        <c:axId val="1896435123"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190882571"/>
+        <c:axId val="1385089001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,10 +302,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534948354"/>
+        <c:crossAx val="1896435123"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1534948354"/>
+        <c:axId val="1896435123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190882571"/>
+        <c:crossAx val="1385089001"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
